--- a/rowswithnan.xlsx
+++ b/rowswithnan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_4D7572BBD300D3DE64AA12D04B5ED87656CCED23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{462D9165-DCE2-46BC-A0E1-D139CD3616B7}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_4D7572BBD300D3DE64AA12D04B5ED87656CCED23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF3ABC5-DB99-46BF-862A-0A04DC859E94}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7791,7 +7791,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -7911,12 +7911,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7948,7 +7948,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8256,9 +8255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D648C-46CE-4A4F-A132-D710E2145BC6}">
   <dimension ref="A1:E678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection sqref="A1:E678"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19803,43 +19800,43 @@
   <dimension ref="A1:K749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1414</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1415</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>1416</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>1418</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>1420</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>1421</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -44547,63 +44544,63 @@
       <c r="B1" s="13" t="s">
         <v>1214</v>
       </c>
-      <c r="C1" s="14" t="str">
+      <c r="C1" t="str">
         <f>_xlfn.XLOOKUP(B1,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="14" t="str">
+      <c r="E1" t="str">
         <f>_xlfn.XLOOKUP(D1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="G1" s="14" t="str">
+      <c r="G1" t="str">
         <f>_xlfn.XLOOKUP(F1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="I1" s="14" t="str">
+      <c r="I1" t="str">
         <f>_xlfn.XLOOKUP(H1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="K1" s="14" t="str">
+      <c r="K1" t="str">
         <f>_xlfn.XLOOKUP(J1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="14" t="str">
+      <c r="M1" t="str">
         <f>_xlfn.XLOOKUP(L1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="O1" s="14" t="str">
+      <c r="O1" t="str">
         <f>_xlfn.XLOOKUP(N1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="Q1" s="14" t="str">
+      <c r="Q1" t="str">
         <f>_xlfn.XLOOKUP(P1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="S1" s="14" t="str">
+      <c r="S1" t="str">
         <f>_xlfn.XLOOKUP(R1,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
@@ -44615,63 +44612,63 @@
       <c r="B2" s="13" t="s">
         <v>1370</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" t="str">
         <f>_xlfn.XLOOKUP(B2,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" t="str">
         <f>_xlfn.XLOOKUP(D2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>1374</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" t="str">
         <f>_xlfn.XLOOKUP(F2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="14" t="str">
+      <c r="I2" t="str">
         <f>_xlfn.XLOOKUP(H2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="14" t="str">
+      <c r="K2" t="str">
         <f>_xlfn.XLOOKUP(J2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="M2" s="14" t="str">
+      <c r="M2" t="str">
         <f>_xlfn.XLOOKUP(L2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="O2" s="14" t="str">
+      <c r="O2" t="str">
         <f>_xlfn.XLOOKUP(N2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="P2" s="13" t="s">
         <v>1229</v>
       </c>
-      <c r="Q2" s="14" t="str">
+      <c r="Q2" t="str">
         <f>_xlfn.XLOOKUP(P2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>1382</v>
       </c>
-      <c r="S2" s="14" t="str">
+      <c r="S2" t="str">
         <f>_xlfn.XLOOKUP(R2,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
@@ -44683,63 +44680,63 @@
       <c r="B3" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" t="str">
         <f>_xlfn.XLOOKUP(D3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>1076</v>
       </c>
-      <c r="G3" s="14" t="str">
+      <c r="G3" t="str">
         <f>_xlfn.XLOOKUP(F3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I3" s="14" t="str">
+      <c r="I3" t="str">
         <f>_xlfn.XLOOKUP(H3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="K3" s="14" t="str">
+      <c r="K3" t="str">
         <f>_xlfn.XLOOKUP(J3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="M3" s="14" t="str">
+      <c r="M3" t="str">
         <f>_xlfn.XLOOKUP(L3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>1078</v>
       </c>
-      <c r="O3" s="14" t="str">
+      <c r="O3" t="str">
         <f>_xlfn.XLOOKUP(N3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" s="14" t="str">
+      <c r="Q3" t="str">
         <f>_xlfn.XLOOKUP(P3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="S3" s="14" t="str">
+      <c r="S3" t="str">
         <f>_xlfn.XLOOKUP(R3,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
@@ -44751,63 +44748,63 @@
       <c r="B4" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" t="str">
         <f>_xlfn.XLOOKUP(D4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="14" t="str">
+      <c r="G4" t="str">
         <f>_xlfn.XLOOKUP(F4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="I4" s="14" t="str">
+      <c r="I4" t="str">
         <f>_xlfn.XLOOKUP(H4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="K4" s="14" t="str">
+      <c r="K4" t="str">
         <f>_xlfn.XLOOKUP(J4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="M4" s="14" t="str">
+      <c r="M4" t="str">
         <f>_xlfn.XLOOKUP(L4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="O4" s="14" t="str">
+      <c r="O4" t="str">
         <f>_xlfn.XLOOKUP(N4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="Q4" s="14" t="str">
+      <c r="Q4" t="str">
         <f>_xlfn.XLOOKUP(P4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="R4" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="S4" s="14" t="str">
+      <c r="S4" t="str">
         <f>_xlfn.XLOOKUP(R4,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
@@ -44819,63 +44816,63 @@
       <c r="B5" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" t="str">
         <f>_xlfn.XLOOKUP(D5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" t="str">
         <f>_xlfn.XLOOKUP(F5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="I5" s="14" t="str">
+      <c r="I5" t="str">
         <f>_xlfn.XLOOKUP(H5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="K5" s="14" t="str">
+      <c r="K5" t="str">
         <f>_xlfn.XLOOKUP(J5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="M5" s="14" t="str">
+      <c r="M5" t="str">
         <f>_xlfn.XLOOKUP(L5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" t="str">
         <f>_xlfn.XLOOKUP(N5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" t="str">
         <f>_xlfn.XLOOKUP(P5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="R5" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="14" t="str">
+      <c r="S5" t="str">
         <f>_xlfn.XLOOKUP(R5,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
@@ -44887,63 +44884,63 @@
       <c r="B6" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" t="str">
         <f>_xlfn.XLOOKUP(D6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" t="str">
         <f>_xlfn.XLOOKUP(F6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>1301</v>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" t="str">
         <f>_xlfn.XLOOKUP(H6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>1302</v>
       </c>
-      <c r="K6" s="14" t="str">
+      <c r="K6" t="str">
         <f>_xlfn.XLOOKUP(J6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>1305</v>
       </c>
-      <c r="M6" s="14" t="str">
+      <c r="M6" t="str">
         <f>_xlfn.XLOOKUP(L6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" t="str">
         <f>_xlfn.XLOOKUP(N6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" t="str">
         <f>_xlfn.XLOOKUP(P6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="S6" s="14" t="str">
+      <c r="S6" t="str">
         <f>_xlfn.XLOOKUP(R6,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
@@ -44955,63 +44952,63 @@
       <c r="B7" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" t="str">
         <f>_xlfn.XLOOKUP(D7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="G7" s="14" t="str">
+      <c r="G7" t="str">
         <f>_xlfn.XLOOKUP(F7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="I7" s="14" t="str">
+      <c r="I7" t="str">
         <f>_xlfn.XLOOKUP(H7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>1236</v>
       </c>
-      <c r="K7" s="14" t="str">
+      <c r="K7" t="str">
         <f>_xlfn.XLOOKUP(J7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="M7" s="14" t="str">
+      <c r="M7" t="str">
         <f>_xlfn.XLOOKUP(L7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="O7" s="14" t="str">
+      <c r="O7" t="str">
         <f>_xlfn.XLOOKUP(N7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="14" t="str">
+      <c r="Q7" t="str">
         <f>_xlfn.XLOOKUP(P7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="R7" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="S7" s="14" t="str">
+      <c r="S7" t="str">
         <f>_xlfn.XLOOKUP(R7,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
@@ -45023,28 +45020,28 @@
       <c r="B8" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!D:D,Sheet2!E:E)</f>
         <v>N</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" t="str">
         <f>_xlfn.XLOOKUP(D8,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>N</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>1412</v>
       </c>
-      <c r="G8" s="14" t="e">
+      <c r="G8" t="e">
         <f>_xlfn.XLOOKUP(F8,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>#N/A</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>1413</v>
       </c>
-      <c r="I8" s="14" t="e">
+      <c r="I8" t="e">
         <f>_xlfn.XLOOKUP(H8,Sheet2!$D:$D,Sheet2!$E:$E)</f>
         <v>#N/A</v>
       </c>
@@ -45056,11 +45053,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45096,7 +45092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4182</v>
       </c>
@@ -45118,7 +45114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4195</v>
       </c>
@@ -45140,7 +45136,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4215</v>
       </c>
@@ -45162,7 +45158,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4281</v>
       </c>
@@ -45184,7 +45180,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4289</v>
       </c>
@@ -45206,7 +45202,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4304</v>
       </c>
@@ -45228,7 +45224,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4328</v>
       </c>
@@ -45250,7 +45246,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4332</v>
       </c>
@@ -45272,7 +45268,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4877</v>
       </c>
@@ -45294,7 +45290,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5023</v>
       </c>
@@ -45316,7 +45312,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8814</v>
       </c>
@@ -45338,7 +45334,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10263</v>
       </c>
@@ -45360,7 +45356,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12558</v>
       </c>
@@ -45382,7 +45378,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14675</v>
       </c>
@@ -45404,7 +45400,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15309</v>
       </c>
@@ -45426,7 +45422,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15793</v>
       </c>
@@ -45448,7 +45444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16241</v>
       </c>
@@ -45470,7 +45466,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20136</v>
       </c>
@@ -45492,7 +45488,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20441</v>
       </c>
@@ -45514,7 +45510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20903</v>
       </c>
@@ -45536,7 +45532,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21024</v>
       </c>
@@ -45558,7 +45554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23193</v>
       </c>
@@ -45580,7 +45576,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23414</v>
       </c>
@@ -45602,7 +45598,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23562</v>
       </c>
@@ -45624,7 +45620,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24056</v>
       </c>
@@ -45646,7 +45642,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24502</v>
       </c>
@@ -45668,7 +45664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24510</v>
       </c>
@@ -45690,7 +45686,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24511</v>
       </c>
@@ -45712,7 +45708,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24515</v>
       </c>
@@ -45734,7 +45730,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24520</v>
       </c>
@@ -45756,7 +45752,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24521</v>
       </c>
@@ -45778,7 +45774,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24550</v>
       </c>
@@ -45800,7 +45796,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>24559</v>
       </c>
@@ -45822,7 +45818,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>24577</v>
       </c>
@@ -45844,7 +45840,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>24584</v>
       </c>
@@ -45866,7 +45862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>24587</v>
       </c>
@@ -45888,7 +45884,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24589</v>
       </c>
@@ -45910,7 +45906,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>24608</v>
       </c>
@@ -45932,7 +45928,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>24611</v>
       </c>
@@ -45954,7 +45950,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24627</v>
       </c>
@@ -45976,7 +45972,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24628</v>
       </c>
@@ -45998,7 +45994,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>24641</v>
       </c>
@@ -46020,7 +46016,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24642</v>
       </c>
@@ -46042,7 +46038,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>24648</v>
       </c>
@@ -46064,7 +46060,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>24659</v>
       </c>
@@ -46086,7 +46082,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>24687</v>
       </c>
@@ -46108,7 +46104,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24688</v>
       </c>
@@ -46130,7 +46126,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24696</v>
       </c>
@@ -46152,7 +46148,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24697</v>
       </c>
@@ -46174,7 +46170,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>24699</v>
       </c>
@@ -46196,7 +46192,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>24700</v>
       </c>
@@ -46218,7 +46214,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>24894</v>
       </c>
@@ -46240,7 +46236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24914</v>
       </c>
@@ -46262,7 +46258,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24951</v>
       </c>
@@ -46284,7 +46280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>25085</v>
       </c>
@@ -46306,7 +46302,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>25093</v>
       </c>
@@ -46328,7 +46324,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>25096</v>
       </c>
@@ -46350,7 +46346,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>25104</v>
       </c>
@@ -46372,7 +46368,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>25109</v>
       </c>
@@ -46394,7 +46390,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>25111</v>
       </c>
@@ -46416,7 +46412,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>25139</v>
       </c>
@@ -46438,7 +46434,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>25150</v>
       </c>
@@ -46460,7 +46456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>25164</v>
       </c>
@@ -46482,7 +46478,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>25179</v>
       </c>
@@ -46504,7 +46500,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>25185</v>
       </c>
@@ -46526,7 +46522,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>25186</v>
       </c>
@@ -46548,7 +46544,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>25224</v>
       </c>
@@ -46570,7 +46566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>25246</v>
       </c>
@@ -46592,7 +46588,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>25310</v>
       </c>
@@ -46614,7 +46610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>25350</v>
       </c>
@@ -46636,7 +46632,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>25364</v>
       </c>
@@ -46658,7 +46654,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>25373</v>
       </c>
@@ -46680,7 +46676,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>25376</v>
       </c>
@@ -46702,7 +46698,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>25386</v>
       </c>
@@ -46724,7 +46720,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>25391</v>
       </c>
@@ -46746,7 +46742,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>25392</v>
       </c>
@@ -46768,7 +46764,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>25397</v>
       </c>
@@ -46790,7 +46786,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>25417</v>
       </c>
@@ -46812,7 +46808,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>25454</v>
       </c>
@@ -46856,7 +46852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>25471</v>
       </c>
@@ -46878,7 +46874,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>25473</v>
       </c>
@@ -46900,7 +46896,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>25477</v>
       </c>
@@ -46922,7 +46918,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25478</v>
       </c>
@@ -46944,7 +46940,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>25479</v>
       </c>
@@ -46966,7 +46962,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>25488</v>
       </c>
@@ -46988,7 +46984,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>25498</v>
       </c>
@@ -47010,7 +47006,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>25525</v>
       </c>
@@ -47032,7 +47028,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>25590</v>
       </c>
@@ -47054,7 +47050,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>25593</v>
       </c>
@@ -47076,7 +47072,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>25596</v>
       </c>
@@ -47098,7 +47094,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>25603</v>
       </c>
@@ -47120,7 +47116,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25605</v>
       </c>
@@ -47142,7 +47138,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>25606</v>
       </c>
@@ -47164,7 +47160,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>25615</v>
       </c>
@@ -47186,7 +47182,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>25650</v>
       </c>
@@ -47208,7 +47204,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>25659</v>
       </c>
@@ -47230,7 +47226,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>25672</v>
       </c>
@@ -47252,7 +47248,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>25676</v>
       </c>
@@ -47274,7 +47270,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>25686</v>
       </c>
@@ -47296,7 +47292,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>25692</v>
       </c>
@@ -47318,7 +47314,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>25782</v>
       </c>
@@ -47340,7 +47336,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>25789</v>
       </c>
@@ -47362,7 +47358,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>25790</v>
       </c>
@@ -47384,7 +47380,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>25795</v>
       </c>
@@ -47406,7 +47402,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>25796</v>
       </c>
@@ -47428,7 +47424,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>25799</v>
       </c>
@@ -47450,7 +47446,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>30459</v>
       </c>
@@ -47472,7 +47468,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>31044</v>
       </c>
@@ -47494,7 +47490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>31086</v>
       </c>
@@ -47516,7 +47512,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>31384</v>
       </c>
@@ -47538,7 +47534,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>31968</v>
       </c>
@@ -47560,7 +47556,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>32081</v>
       </c>
@@ -47582,7 +47578,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>32994</v>
       </c>
@@ -47604,7 +47600,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>33212</v>
       </c>
@@ -47626,7 +47622,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>33260</v>
       </c>
@@ -47648,7 +47644,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>33261</v>
       </c>
@@ -47670,7 +47666,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>33657</v>
       </c>
@@ -47692,7 +47688,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>33698</v>
       </c>
@@ -47714,7 +47710,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>34256</v>
       </c>
@@ -47736,7 +47732,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>34462</v>
       </c>
@@ -47758,7 +47754,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>34465</v>
       </c>
@@ -47780,7 +47776,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>34468</v>
       </c>
@@ -47802,7 +47798,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>34985</v>
       </c>
@@ -47824,7 +47820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>35099</v>
       </c>
@@ -47846,7 +47842,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>35450</v>
       </c>
@@ -47868,7 +47864,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>35771</v>
       </c>
@@ -47890,7 +47886,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>35971</v>
       </c>
@@ -47912,7 +47908,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>36079</v>
       </c>
@@ -47934,7 +47930,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>36380</v>
       </c>
@@ -47956,7 +47952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>36681</v>
       </c>
@@ -47978,7 +47974,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>36778</v>
       </c>
@@ -48000,7 +47996,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>36801</v>
       </c>
@@ -48022,7 +48018,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>36956</v>
       </c>
@@ -48044,7 +48040,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>37507</v>
       </c>
@@ -48066,7 +48062,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>37724</v>
       </c>
@@ -48088,7 +48084,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>37875</v>
       </c>
@@ -48110,7 +48106,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>38696</v>
       </c>
@@ -48132,7 +48128,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>38728</v>
       </c>
@@ -48154,7 +48150,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>39185</v>
       </c>
@@ -48176,7 +48172,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>39826</v>
       </c>
@@ -48198,7 +48194,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>39962</v>
       </c>
@@ -48220,7 +48216,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>39992</v>
       </c>
@@ -48242,7 +48238,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>40224</v>
       </c>
@@ -48264,7 +48260,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>40915</v>
       </c>
@@ -48286,7 +48282,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>41371</v>
       </c>
@@ -48330,7 +48326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>41758</v>
       </c>
@@ -48352,7 +48348,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>42048</v>
       </c>
@@ -48374,7 +48370,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>42085</v>
       </c>
@@ -48396,7 +48392,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>42722</v>
       </c>
@@ -48418,7 +48414,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>42744</v>
       </c>
@@ -48440,7 +48436,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>43473</v>
       </c>
@@ -48462,7 +48458,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>43592</v>
       </c>
@@ -48484,7 +48480,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>43720</v>
       </c>
@@ -48506,7 +48502,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>44435</v>
       </c>
@@ -48528,7 +48524,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>44828</v>
       </c>
@@ -48550,7 +48546,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>45184</v>
       </c>
@@ -48572,7 +48568,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>45420</v>
       </c>
@@ -48594,7 +48590,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>46483</v>
       </c>
@@ -48616,7 +48612,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>46607</v>
       </c>
@@ -48638,7 +48634,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>46850</v>
       </c>
@@ -48660,7 +48656,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>46970</v>
       </c>
@@ -48682,7 +48678,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>48116</v>
       </c>
@@ -48704,7 +48700,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>49074</v>
       </c>
@@ -48726,7 +48722,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>49176</v>
       </c>
@@ -48748,7 +48744,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>49315</v>
       </c>
@@ -48770,7 +48766,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>49760</v>
       </c>
@@ -48792,7 +48788,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>52278</v>
       </c>
@@ -48814,7 +48810,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>52663</v>
       </c>
@@ -48836,7 +48832,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>52983</v>
       </c>
@@ -48858,7 +48854,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>53380</v>
       </c>
@@ -48880,7 +48876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>53565</v>
       </c>
@@ -48902,7 +48898,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>53799</v>
       </c>
@@ -48924,7 +48920,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>53871</v>
       </c>
@@ -48946,7 +48942,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>54070</v>
       </c>
@@ -48968,7 +48964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>54089</v>
       </c>
@@ -48990,7 +48986,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>54142</v>
       </c>
@@ -49012,7 +49008,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>54182</v>
       </c>
@@ -49034,7 +49030,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>54340</v>
       </c>
@@ -49056,7 +49052,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>54441</v>
       </c>
@@ -49078,7 +49074,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>54573</v>
       </c>
@@ -49100,7 +49096,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>54602</v>
       </c>
@@ -49122,7 +49118,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>54817</v>
       </c>
@@ -49144,7 +49140,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>54890</v>
       </c>
@@ -49166,7 +49162,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>54910</v>
       </c>
@@ -49188,7 +49184,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>55318</v>
       </c>
@@ -49210,7 +49206,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>55515</v>
       </c>
@@ -49233,18 +49229,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H189" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ES - Medical - Sur"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>